--- a/activity/c-pointer/text04/ensyu-4-5.xlsx
+++ b/activity/c-pointer/text04/ensyu-4-5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <r>
       <t>0x</t>
@@ -83,6 +83,10 @@
       </rPr>
       <t>？</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> *pa</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -152,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K4"/>
+  <dimension ref="B3:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,6 +627,11 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
